--- a/InputData/elec/BGrBSC/BAU Grid Battery Storage Cap.xlsx
+++ b/InputData/elec/BGrBSC/BAU Grid Battery Storage Cap.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BGrBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\BGrBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C644DDC-15EB-41C5-B497-78C96E975045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22035" windowHeight="11565"/>
+    <workbookView xWindow="49635" yWindow="660" windowWidth="13830" windowHeight="13005" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Table 9" sheetId="4" r:id="rId2"/>
-    <sheet name="BGrBSC" sheetId="3" r:id="rId3"/>
+    <sheet name="ERCOT Wind and Solar" sheetId="6" r:id="rId3"/>
+    <sheet name="Texas Notes" sheetId="5" r:id="rId4"/>
+    <sheet name="BGrBSC" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="164">
   <si>
     <t>Source:</t>
   </si>
@@ -447,16 +460,83 @@
   </si>
   <si>
     <t>We assume BAU diurnal storage is all battery storage</t>
+  </si>
+  <si>
+    <t>I was going to use the ERCOT LTSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instead, I'm going to assume that battery capacity scales with wind and solar capacity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So, I'll take the ratio of ERCOT:US wind and solar capacity for 2018, 2023, and 2028 using the LTSA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then I'll use those ratios to determine the ERCOT share of the battery market. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">source: </t>
+  </si>
+  <si>
+    <t>http://www.ercot.com/content/wcm/lists/144927/2018_LTSA_Report.pdf</t>
+  </si>
+  <si>
+    <t>ERCOT 2018 LTSA Table I. 4</t>
+  </si>
+  <si>
+    <t>http://www.ercot.com/content/wcm/landing_pages/88833/ERCOT_2018_State_of_the_Grid_Report.pdf</t>
+  </si>
+  <si>
+    <t>ERCOT solar (GW)</t>
+  </si>
+  <si>
+    <t>ERCOT wind (GW)</t>
+  </si>
+  <si>
+    <t>ERCOT renewables (GW)</t>
+  </si>
+  <si>
+    <t>US renewables (GW)</t>
+  </si>
+  <si>
+    <t>ERCOT:US ratio</t>
+  </si>
+  <si>
+    <t>piecewise linear</t>
+  </si>
+  <si>
+    <t>projected ratio</t>
+  </si>
+  <si>
+    <t>EPS original battery numbers</t>
+  </si>
+  <si>
+    <t>ERCOT Battery Numbers</t>
+  </si>
+  <si>
+    <t>to forecase future ratios, assume a piecewise linear for every five years. The first 3 periods are given. The next 4 periods I assume have a linear slope that slowly flattens out based on the difference between the 2018-2023 and 2023-2028 slopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they do model storage, but they project 0 MW of new additions through 2033. </t>
+  </si>
+  <si>
+    <t>I don't feel like zero is the right answer here. Because the ERCOT interconnection queue has thousands of MW of storage in it.</t>
+  </si>
+  <si>
+    <t>https://www.gridmonitor.com/explosion-of-batteries-in-the-ercot-interconnection-queue/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not all of that storage will be built, but it shows a strong demand for storage. Probably the LTSA has some sort of capacity expansion method that evaluates storage too pessimistically. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -949,7 +1029,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -993,69 +1073,76 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="58">
-    <cellStyle name="20% - Accent1 2" xfId="3"/>
-    <cellStyle name="20% - Accent2 2" xfId="4"/>
-    <cellStyle name="20% - Accent3 2" xfId="5"/>
-    <cellStyle name="20% - Accent4 2" xfId="6"/>
-    <cellStyle name="20% - Accent5 2" xfId="7"/>
-    <cellStyle name="20% - Accent6 2" xfId="8"/>
-    <cellStyle name="40% - Accent1 2" xfId="9"/>
-    <cellStyle name="40% - Accent2 2" xfId="10"/>
-    <cellStyle name="40% - Accent3 2" xfId="11"/>
-    <cellStyle name="40% - Accent4 2" xfId="12"/>
-    <cellStyle name="40% - Accent5 2" xfId="13"/>
-    <cellStyle name="40% - Accent6 2" xfId="14"/>
-    <cellStyle name="60% - Accent1 2" xfId="15"/>
-    <cellStyle name="60% - Accent2 2" xfId="16"/>
-    <cellStyle name="60% - Accent3 2" xfId="17"/>
-    <cellStyle name="60% - Accent4 2" xfId="18"/>
-    <cellStyle name="60% - Accent5 2" xfId="19"/>
-    <cellStyle name="60% - Accent6 2" xfId="20"/>
-    <cellStyle name="Accent1 2" xfId="21"/>
-    <cellStyle name="Accent2 2" xfId="22"/>
-    <cellStyle name="Accent3 2" xfId="23"/>
-    <cellStyle name="Accent4 2" xfId="24"/>
-    <cellStyle name="Accent5 2" xfId="25"/>
-    <cellStyle name="Accent6 2" xfId="26"/>
-    <cellStyle name="Bad 2" xfId="27"/>
-    <cellStyle name="Body: normal cell" xfId="56"/>
-    <cellStyle name="Calculation 2" xfId="28"/>
-    <cellStyle name="Check Cell 2" xfId="29"/>
-    <cellStyle name="Euro" xfId="30"/>
-    <cellStyle name="Explanatory Text 2" xfId="31"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="52"/>
-    <cellStyle name="Footnotes: top row" xfId="57"/>
-    <cellStyle name="Good 2" xfId="32"/>
-    <cellStyle name="Header: bottom row" xfId="53"/>
-    <cellStyle name="Heading 1 2" xfId="33"/>
-    <cellStyle name="Heading 2 2" xfId="34"/>
-    <cellStyle name="Heading 3 2" xfId="35"/>
-    <cellStyle name="Heading 4 2" xfId="36"/>
+    <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="56" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Calculation 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Check Cell 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Euro" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="52" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="57" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Good 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Header: bottom row" xfId="53" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Heading 1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Heading 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Heading 3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Heading 4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Input 2" xfId="37"/>
-    <cellStyle name="Linked Cell 2" xfId="38"/>
-    <cellStyle name="Neutral 2" xfId="39"/>
+    <cellStyle name="Input 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Neutral 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="45"/>
-    <cellStyle name="Normal 2 3" xfId="48"/>
-    <cellStyle name="Normal 2 4" xfId="49"/>
-    <cellStyle name="Normal 2 5" xfId="50"/>
-    <cellStyle name="Normal 2 6" xfId="51"/>
-    <cellStyle name="Normal 3" xfId="46"/>
-    <cellStyle name="Normal 4" xfId="47"/>
-    <cellStyle name="Note 2" xfId="40"/>
-    <cellStyle name="Output 2" xfId="41"/>
-    <cellStyle name="Parent row" xfId="55"/>
-    <cellStyle name="Table title" xfId="54"/>
-    <cellStyle name="Title 2" xfId="42"/>
-    <cellStyle name="Total 2" xfId="43"/>
-    <cellStyle name="Warning Text 2" xfId="44"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 2 5" xfId="50" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 2 6" xfId="51" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Note 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Output 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Parent row" xfId="55" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Table title" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Title 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Total 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Warning Text 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1068,6 +1155,959 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ERCOT:US Ratio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ERCOT Wind and Solar'!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ERCOT Wind and Solar'!$B$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.10965934683215939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13396317671197924</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14394815958687732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C418-42E8-9B31-B8C374F6C8DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Forecast</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ERCOT Wind and Solar'!$E$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ERCOT Wind and Solar'!$E$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.14406626125843752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14411482194533484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14413477933756808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14414297976592316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C418-42E8-9B31-B8C374F6C8DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="436872888"/>
+        <c:axId val="436873216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="436872888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2050"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436873216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="436873216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436872888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7CFEFB-42DD-4AEF-9483-42120226E42C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1146,6 +2186,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1181,6 +2238,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1356,24 +2430,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1381,60 +2455,60 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -1442,23 +2516,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK114"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AM119"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="6" customWidth="1"/>
-    <col min="3" max="37" width="9.140625" style="6"/>
+    <col min="1" max="1" width="8.796875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" style="6" customWidth="1"/>
+    <col min="3" max="37" width="9.1328125" style="6"/>
     <col min="38" max="38" width="8" style="6" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="6"/>
+    <col min="39" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="9" t="s">
         <v>125</v>
       </c>
@@ -1565,8 +2639,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +2651,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1590,7 +2664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
@@ -1601,7 +2675,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1612,7 +2686,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
@@ -1620,12 +2694,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
@@ -1735,7 +2809,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -1845,18 +2919,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1969,7 +3043,7 @@
         <v>-1.4527999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
@@ -2082,7 +3156,7 @@
         <v>-1.2109E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
@@ -2195,7 +3269,7 @@
         <v>2.2502999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
@@ -2308,7 +3382,7 @@
         <v>8.456E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
@@ -2421,7 +3495,7 @@
         <v>-5.6340000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>29</v>
       </c>
@@ -2534,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
@@ -2647,7 +3721,7 @@
         <v>0.123014</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>33</v>
       </c>
@@ -2760,7 +3834,7 @@
         <v>5.8900000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -2873,7 +3947,7 @@
         <v>2.3185000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
         <v>37</v>
       </c>
@@ -2986,7 +4060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
         <v>40</v>
       </c>
@@ -3099,12 +4173,12 @@
         <v>1.1344E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12" t="s">
         <v>43</v>
       </c>
@@ -3217,7 +4291,7 @@
         <v>-3.3660000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
         <v>45</v>
       </c>
@@ -3330,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12" t="s">
         <v>47</v>
       </c>
@@ -3443,7 +4517,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
         <v>48</v>
       </c>
@@ -3556,7 +4630,7 @@
         <v>-9.68E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="12" t="s">
         <v>49</v>
       </c>
@@ -3669,7 +4743,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
         <v>50</v>
       </c>
@@ -3782,12 +4856,12 @@
         <v>-4.06E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12" t="s">
         <v>52</v>
       </c>
@@ -3900,7 +4974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
         <v>53</v>
       </c>
@@ -4013,7 +5087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
         <v>54</v>
       </c>
@@ -4126,7 +5200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
         <v>55</v>
       </c>
@@ -4239,7 +5313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12" t="s">
         <v>56</v>
       </c>
@@ -4352,7 +5426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12" t="s">
         <v>58</v>
       </c>
@@ -4465,7 +5539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="12" t="s">
         <v>59</v>
       </c>
@@ -4578,7 +5652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="12" t="s">
         <v>60</v>
       </c>
@@ -4691,7 +5765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="12" t="s">
         <v>61</v>
       </c>
@@ -4804,7 +5878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="12" t="s">
         <v>62</v>
       </c>
@@ -4917,7 +5991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="12" t="s">
         <v>64</v>
       </c>
@@ -5030,12 +6104,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="12" t="s">
         <v>66</v>
       </c>
@@ -5148,7 +6222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="12" t="s">
         <v>67</v>
       </c>
@@ -5261,7 +6335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="12" t="s">
         <v>68</v>
       </c>
@@ -5374,7 +6448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="12" t="s">
         <v>69</v>
       </c>
@@ -5487,7 +6561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="12" t="s">
         <v>70</v>
       </c>
@@ -5600,7 +6674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
         <v>71</v>
       </c>
@@ -5713,7 +6787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="12" t="s">
         <v>72</v>
       </c>
@@ -5826,7 +6900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="12" t="s">
         <v>73</v>
       </c>
@@ -5939,7 +7013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="12" t="s">
         <v>74</v>
       </c>
@@ -6052,7 +7126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="12" t="s">
         <v>75</v>
       </c>
@@ -6165,7 +7239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="12" t="s">
         <v>76</v>
       </c>
@@ -6278,7 +7352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="12" t="s">
         <v>77</v>
       </c>
@@ -6391,12 +7465,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="12" t="s">
         <v>79</v>
       </c>
@@ -6509,7 +7583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="12" t="s">
         <v>80</v>
       </c>
@@ -6622,7 +7696,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="12" t="s">
         <v>81</v>
       </c>
@@ -6735,7 +7809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="12" t="s">
         <v>82</v>
       </c>
@@ -6848,7 +7922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="12" t="s">
         <v>83</v>
       </c>
@@ -6961,7 +8035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="12" t="s">
         <v>84</v>
       </c>
@@ -7074,7 +8148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="12" t="s">
         <v>85</v>
       </c>
@@ -7187,7 +8261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="12" t="s">
         <v>86</v>
       </c>
@@ -7300,7 +8374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="12" t="s">
         <v>87</v>
       </c>
@@ -7413,7 +8487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="12" t="s">
         <v>88</v>
       </c>
@@ -7526,7 +8600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="12" t="s">
         <v>89</v>
       </c>
@@ -7639,12 +8713,12 @@
         <v>1.1053E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="12" t="s">
         <v>92</v>
       </c>
@@ -7757,7 +8831,7 @@
         <v>-9.3640000000000008E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="12" t="s">
         <v>93</v>
       </c>
@@ -7870,7 +8944,7 @@
         <v>-2.039E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="12" t="s">
         <v>95</v>
       </c>
@@ -7983,7 +9057,7 @@
         <v>2.5253000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="12" t="s">
         <v>97</v>
       </c>
@@ -8096,7 +9170,7 @@
         <v>-7.0799999999999997E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="12" t="s">
         <v>99</v>
       </c>
@@ -8209,7 +9283,7 @@
         <v>6.0502E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="12" t="s">
         <v>100</v>
       </c>
@@ -8322,7 +9396,7 @@
         <v>4.0169999999999997E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="12" t="s">
         <v>102</v>
       </c>
@@ -8435,7 +9509,7 @@
         <v>4.7788999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="12" t="s">
         <v>103</v>
       </c>
@@ -8548,178 +9622,178 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="23" t="s">
+    <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
-      <c r="M87" s="23"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="23"/>
-      <c r="P87" s="23"/>
-      <c r="Q87" s="23"/>
-      <c r="R87" s="23"/>
-      <c r="S87" s="23"/>
-      <c r="T87" s="23"/>
-      <c r="U87" s="23"/>
-      <c r="V87" s="23"/>
-      <c r="W87" s="23"/>
-      <c r="X87" s="23"/>
-      <c r="Y87" s="23"/>
-      <c r="Z87" s="23"/>
-      <c r="AA87" s="23"/>
-      <c r="AB87" s="23"/>
-      <c r="AC87" s="23"/>
-      <c r="AD87" s="23"/>
-      <c r="AE87" s="23"/>
-      <c r="AF87" s="23"/>
-      <c r="AG87" s="23"/>
-      <c r="AH87" s="23"/>
-      <c r="AI87" s="23"/>
-      <c r="AJ87" s="23"/>
-      <c r="AK87" s="23"/>
-    </row>
-    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
+      <c r="U87" s="25"/>
+      <c r="V87" s="25"/>
+      <c r="W87" s="25"/>
+      <c r="X87" s="25"/>
+      <c r="Y87" s="25"/>
+      <c r="Z87" s="25"/>
+      <c r="AA87" s="25"/>
+      <c r="AB87" s="25"/>
+      <c r="AC87" s="25"/>
+      <c r="AD87" s="25"/>
+      <c r="AE87" s="25"/>
+      <c r="AF87" s="25"/>
+      <c r="AG87" s="25"/>
+      <c r="AH87" s="25"/>
+      <c r="AI87" s="25"/>
+      <c r="AJ87" s="25"/>
+      <c r="AK87" s="25"/>
+    </row>
+    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B109" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="21" t="s">
         <v>140</v>
       </c>
@@ -8733,27 +9807,905 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E08488-9B5A-48C3-8F59-84D8BA676B68}">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2023</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2028</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2033</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2038</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2043</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6">
+        <v>21.8</v>
+      </c>
+      <c r="C6">
+        <f>B6+6.3</f>
+        <v>28.1</v>
+      </c>
+      <c r="D6">
+        <f>C6+0.1</f>
+        <v>28.200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7">
+        <v>1.7</v>
+      </c>
+      <c r="C7">
+        <f>B7+7.5</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D7">
+        <f>C7+5.1</f>
+        <v>14.299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B6:B7)</f>
+        <v>23.5</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" ref="C8:D8" si="0">SUM(C6:C7)</f>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10">
+        <f>'AEO Table 9'!D25</f>
+        <v>214.30001799999999</v>
+      </c>
+      <c r="C10">
+        <f>'AEO Table 9'!I25</f>
+        <v>278.43472300000002</v>
+      </c>
+      <c r="D10">
+        <f>'AEO Table 9'!N25</f>
+        <v>295.24517800000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12">
+        <f>B8/B10</f>
+        <v>0.10965934683215939</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" ref="C12:D12" si="1">C8/C10</f>
+        <v>0.13396317671197924</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.14394815958687732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15">
+        <f>(C12-B12)/5</f>
+        <v>4.8607659759639706E-3</v>
+      </c>
+      <c r="D15" s="6">
+        <f>(D12-C12)/5</f>
+        <v>1.9969965749796147E-3</v>
+      </c>
+      <c r="E15">
+        <f>($D$15/$C$15)*D15</f>
+        <v>8.2044585980904508E-4</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15:H15" si="2">($D$15/$C$15)*E15</f>
+        <v>3.3707188951221642E-4</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="2"/>
+        <v>1.384825791256717E-4</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6894168033560923E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16">
+        <f>D12*(1+E15)</f>
+        <v>0.14406626125843752</v>
+      </c>
+      <c r="F16">
+        <f>E16*(1+F15)</f>
+        <v>0.14411482194533484</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" ref="G16:H16" si="3">F16*(1+G15)</f>
+        <v>0.14413477933756808</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="3"/>
+        <v>0.14414297976592316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <f>B21-(B22-B21)</f>
+        <v>0.10479858085619542</v>
+      </c>
+      <c r="C20" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A5,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>592.19999999999993</v>
+      </c>
+      <c r="D20" s="24">
+        <f>C20*B20</f>
+        <v>62.061719583038922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <f>B12</f>
+        <v>0.10965934683215939</v>
+      </c>
+      <c r="C21" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A6,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>752.5</v>
+      </c>
+      <c r="D21" s="24">
+        <f t="shared" ref="D21:D53" si="4">C21*B21</f>
+        <v>82.518658491199943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <f>B21*0.8+B26*0.2</f>
+        <v>0.11452011280812335</v>
+      </c>
+      <c r="C22" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A7,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>798.5</v>
+      </c>
+      <c r="D22" s="24">
+        <f t="shared" si="4"/>
+        <v>91.444310077286502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B23">
+        <f>B21*0.6+B26*0.4</f>
+        <v>0.11938087878408733</v>
+      </c>
+      <c r="C23" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A8,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>919.5</v>
+      </c>
+      <c r="D23" s="24">
+        <f t="shared" si="4"/>
+        <v>109.77071804196831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B24">
+        <f>B21*0.4+B26*0.6</f>
+        <v>0.1242416447600513</v>
+      </c>
+      <c r="C24" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A9,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>1169.5</v>
+      </c>
+      <c r="D24" s="24">
+        <f t="shared" si="4"/>
+        <v>145.30060354687998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B25">
+        <f>B26*0.8+B21*0.2</f>
+        <v>0.12910241073601528</v>
+      </c>
+      <c r="C25" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A10,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>1419.5</v>
+      </c>
+      <c r="D25" s="24">
+        <f t="shared" si="4"/>
+        <v>183.26087203977369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B26">
+        <f>C12</f>
+        <v>0.13396317671197924</v>
+      </c>
+      <c r="C26" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A11,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>1669.5</v>
+      </c>
+      <c r="D26" s="24">
+        <f t="shared" si="4"/>
+        <v>223.65152352064933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B27" s="6">
+        <f>B26*0.8+B31*0.2</f>
+        <v>0.13596017328695886</v>
+      </c>
+      <c r="C27" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A12,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>1918.5</v>
+      </c>
+      <c r="D27" s="24">
+        <f t="shared" si="4"/>
+        <v>260.83959245103057</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B28" s="6">
+        <f>B26*0.6+B31*0.4</f>
+        <v>0.13795716986193846</v>
+      </c>
+      <c r="C28" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A13,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>1918.5</v>
+      </c>
+      <c r="D28" s="24">
+        <f t="shared" si="4"/>
+        <v>264.6708303801289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="6">
+        <v>2026</v>
+      </c>
+      <c r="B29" s="6">
+        <f>B26*0.4+B31*0.6</f>
+        <v>0.1399541664369181</v>
+      </c>
+      <c r="C29" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A14,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>1918.5</v>
+      </c>
+      <c r="D29" s="24">
+        <f t="shared" si="4"/>
+        <v>268.50206830922735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="6">
+        <v>2027</v>
+      </c>
+      <c r="B30" s="6">
+        <f>B31*0.8+B26*0.2</f>
+        <v>0.1419511630118977</v>
+      </c>
+      <c r="C30" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A15,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>1918.5</v>
+      </c>
+      <c r="D30" s="24">
+        <f t="shared" si="4"/>
+        <v>272.33330623832575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="6">
+        <v>2028</v>
+      </c>
+      <c r="B31">
+        <f>D12</f>
+        <v>0.14394815958687732</v>
+      </c>
+      <c r="C31" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A16,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>1918.5</v>
+      </c>
+      <c r="D31" s="24">
+        <f t="shared" si="4"/>
+        <v>276.16454416742414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="6">
+        <v>2029</v>
+      </c>
+      <c r="B32" s="6">
+        <f>B31*0.8+B36*0.2</f>
+        <v>0.14397177992118937</v>
+      </c>
+      <c r="C32" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A17,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>1918.5</v>
+      </c>
+      <c r="D32" s="24">
+        <f t="shared" si="4"/>
+        <v>276.20985977880179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="6">
+        <v>2030</v>
+      </c>
+      <c r="B33" s="6">
+        <f>B31*0.6+B36*0.4</f>
+        <v>0.14399540025550139</v>
+      </c>
+      <c r="C33" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A18,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>1918.5</v>
+      </c>
+      <c r="D33" s="24">
+        <f t="shared" si="4"/>
+        <v>276.25517539017943</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="6">
+        <v>2031</v>
+      </c>
+      <c r="B34" s="6">
+        <f>B31*0.4+B36*0.6</f>
+        <v>0.14401902058981342</v>
+      </c>
+      <c r="C34" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A19,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>4715.5</v>
+      </c>
+      <c r="D34" s="24">
+        <f t="shared" si="4"/>
+        <v>679.12169159126518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="6">
+        <v>2032</v>
+      </c>
+      <c r="B35" s="6">
+        <f>B36*0.8+B31*0.2</f>
+        <v>0.1440426409241255</v>
+      </c>
+      <c r="C35" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A20,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>5713.4400000000005</v>
+      </c>
+      <c r="D35" s="24">
+        <f t="shared" si="4"/>
+        <v>822.9789863615357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="6">
+        <v>2033</v>
+      </c>
+      <c r="B36">
+        <f>E16</f>
+        <v>0.14406626125843752</v>
+      </c>
+      <c r="C36" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A21,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>5713.4400000000005</v>
+      </c>
+      <c r="D36" s="24">
+        <f t="shared" si="4"/>
+        <v>823.11393972440737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="6">
+        <v>2034</v>
+      </c>
+      <c r="B37" s="6">
+        <f>B36*0.8+B41*0.2</f>
+        <v>0.14407597339581699</v>
+      </c>
+      <c r="C37" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A22,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>6475.43</v>
+      </c>
+      <c r="D37" s="24">
+        <f t="shared" si="4"/>
+        <v>932.95388040647526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="6">
+        <v>2035</v>
+      </c>
+      <c r="B38" s="6">
+        <f>B36*0.6+B41*0.4</f>
+        <v>0.14408568553319645</v>
+      </c>
+      <c r="C38" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A23,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>8001.4579999999996</v>
+      </c>
+      <c r="D38" s="24">
+        <f t="shared" si="4"/>
+        <v>1152.8955611950789</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="6">
+        <v>2036</v>
+      </c>
+      <c r="B39" s="6">
+        <f>B36*0.4+B41*0.6</f>
+        <v>0.14409539767057591</v>
+      </c>
+      <c r="C39" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A24,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>9272.8990000000013</v>
+      </c>
+      <c r="D39" s="24">
+        <f t="shared" si="4"/>
+        <v>1336.1820689640858</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="6">
+        <v>2037</v>
+      </c>
+      <c r="B40" s="6">
+        <f>B41*0.8+B36*0.2</f>
+        <v>0.14410510980795538</v>
+      </c>
+      <c r="C40" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A25,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>9281.3060000000005</v>
+      </c>
+      <c r="D40" s="24">
+        <f t="shared" si="4"/>
+        <v>1337.4836202912352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="6">
+        <v>2038</v>
+      </c>
+      <c r="B41">
+        <f>F16</f>
+        <v>0.14411482194533484</v>
+      </c>
+      <c r="C41" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A26,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>12197.307000000001</v>
+      </c>
+      <c r="D41" s="24">
+        <f t="shared" si="4"/>
+        <v>1757.8127265175865</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="6">
+        <v>2039</v>
+      </c>
+      <c r="B42" s="6">
+        <f>B41*0.8+B46*0.2</f>
+        <v>0.14411881342378149</v>
+      </c>
+      <c r="C42" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A27,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>12439.215</v>
+      </c>
+      <c r="D42" s="24">
+        <f t="shared" si="4"/>
+        <v>1792.7249057233041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="6">
+        <v>2040</v>
+      </c>
+      <c r="B43" s="6">
+        <f>B41*0.6+B46*0.4</f>
+        <v>0.14412280490222812</v>
+      </c>
+      <c r="C43" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A28,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>15457.273999999999</v>
+      </c>
+      <c r="D43" s="24">
+        <f t="shared" si="4"/>
+        <v>2227.7456850222829</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="6">
+        <v>2041</v>
+      </c>
+      <c r="B44" s="6">
+        <f>B41*0.4+B46*0.6</f>
+        <v>0.14412679638067477</v>
+      </c>
+      <c r="C44" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A29,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>18583.275000000001</v>
+      </c>
+      <c r="D44" s="24">
+        <f t="shared" si="4"/>
+        <v>2678.3478920110842</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="6">
+        <v>2042</v>
+      </c>
+      <c r="B45" s="6">
+        <f>B46*0.8+B41*0.2</f>
+        <v>0.14413078785912145</v>
+      </c>
+      <c r="C45" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A30,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>18818.812999999998</v>
+      </c>
+      <c r="D45" s="24">
+        <f t="shared" si="4"/>
+        <v>2712.3703442634765</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="6">
+        <v>2043</v>
+      </c>
+      <c r="B46">
+        <f>G16</f>
+        <v>0.14413477933756808</v>
+      </c>
+      <c r="C46" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A31,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>20163.57</v>
+      </c>
+      <c r="D46" s="24">
+        <f t="shared" si="4"/>
+        <v>2906.2717126076077</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="6">
+        <v>2044</v>
+      </c>
+      <c r="B47" s="6">
+        <f>B46*0.8+B51*0.2</f>
+        <v>0.1441364194232391</v>
+      </c>
+      <c r="C47" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A32,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>20803.710999999999</v>
+      </c>
+      <c r="D47" s="24">
+        <f t="shared" si="4"/>
+        <v>2998.5724142558529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="6">
+        <v>2045</v>
+      </c>
+      <c r="B48" s="6">
+        <f>B46*0.6+B51*0.4</f>
+        <v>0.14413805950891012</v>
+      </c>
+      <c r="C48" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A33,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>21957.171999999999</v>
+      </c>
+      <c r="D48" s="24">
+        <f t="shared" si="4"/>
+        <v>3164.8641643833748</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="6">
+        <v>2046</v>
+      </c>
+      <c r="B49" s="6">
+        <f>B46*0.4+B51*0.6</f>
+        <v>0.14413969959458112</v>
+      </c>
+      <c r="C49" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A34,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>23104.578000000001</v>
+      </c>
+      <c r="D49" s="24">
+        <f t="shared" si="4"/>
+        <v>3330.2869321795679</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="6">
+        <v>2047</v>
+      </c>
+      <c r="B50" s="6">
+        <f>B51*0.8+B46*0.2</f>
+        <v>0.14414133968025217</v>
+      </c>
+      <c r="C50" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A35,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>26104.578000000001</v>
+      </c>
+      <c r="D50" s="24">
+        <f t="shared" si="4"/>
+        <v>3762.748844707638</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="6">
+        <v>2048</v>
+      </c>
+      <c r="B51">
+        <f>H16</f>
+        <v>0.14414297976592316</v>
+      </c>
+      <c r="C51" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A36,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>27820.377</v>
+      </c>
+      <c r="D51" s="24">
+        <f t="shared" si="4"/>
+        <v>4010.112038991354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="6">
+        <v>2049</v>
+      </c>
+      <c r="B52">
+        <f>B51+(B51-B50)</f>
+        <v>0.14414461985159416</v>
+      </c>
+      <c r="C52" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A37,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>27820.377</v>
+      </c>
+      <c r="D52" s="24">
+        <f t="shared" si="4"/>
+        <v>4010.1576667930335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="6">
+        <v>2050</v>
+      </c>
+      <c r="B53" s="6">
+        <f>B52+(B52-B51)</f>
+        <v>0.14414625993726515</v>
+      </c>
+      <c r="C53" s="8">
+        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A38,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
+        <v>30820.377</v>
+      </c>
+      <c r="D53" s="24">
+        <f t="shared" si="4"/>
+        <v>4442.6420744065081</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:H14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{F1293F92-CB54-420C-B180-6DD39ED03F61}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{0EA77B40-9DCB-45B4-BCB1-16F0C16587B7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954B34C-E227-4380-9B6D-F5E9EA8875ED}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{A6323CF4-B507-4AB9-94AB-5483013C801F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>2014</v>
       </c>
@@ -8761,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>2015</v>
       </c>
@@ -8769,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>2016</v>
       </c>
@@ -8777,313 +10729,313 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>2017</v>
       </c>
       <c r="B5" s="8">
-        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A5,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
-        <v>592.19999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D20</f>
+        <v>62.061719583038922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>2018</v>
       </c>
       <c r="B6" s="8">
-        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A6,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
-        <v>752.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D21</f>
+        <v>82.518658491199943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>2019</v>
       </c>
       <c r="B7" s="8">
-        <f>(INDEX('AEO Table 9'!$C$23:$AK$23,1,MATCH(BGrBSC!A7,'AEO Table 9'!$C$13:$AK$13,0)))*1000</f>
-        <v>798.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D22</f>
+        <v>91.444310077286502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>2020</v>
       </c>
       <c r="B8" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A8,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>919.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D23</f>
+        <v>109.77071804196831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>2021</v>
       </c>
       <c r="B9" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A9,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>1169.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D24</f>
+        <v>145.30060354687998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>2022</v>
       </c>
       <c r="B10" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A10,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>1419.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D25</f>
+        <v>183.26087203977369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>2023</v>
       </c>
       <c r="B11" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A11,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>1669.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D26</f>
+        <v>223.65152352064933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>2024</v>
       </c>
       <c r="B12" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A12,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>1918.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D27</f>
+        <v>260.83959245103057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>2025</v>
       </c>
       <c r="B13" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A13,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>1918.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D28</f>
+        <v>264.6708303801289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>2026</v>
       </c>
       <c r="B14" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A14,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>1918.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D29</f>
+        <v>268.50206830922735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>2027</v>
       </c>
       <c r="B15" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A15,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>1918.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D30</f>
+        <v>272.33330623832575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>2028</v>
       </c>
       <c r="B16" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A16,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>1918.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D31</f>
+        <v>276.16454416742414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>2029</v>
       </c>
       <c r="B17" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A17,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>1918.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D32</f>
+        <v>276.20985977880179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>2030</v>
       </c>
       <c r="B18" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A18,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>1918.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D33</f>
+        <v>276.25517539017943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>2031</v>
       </c>
       <c r="B19" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A19,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>4715.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D34</f>
+        <v>679.12169159126518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>2032</v>
       </c>
       <c r="B20" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A20,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>5713.4400000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D35</f>
+        <v>822.9789863615357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>2033</v>
       </c>
       <c r="B21" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A21,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>5713.4400000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D36</f>
+        <v>823.11393972440737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>2034</v>
       </c>
       <c r="B22" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A22,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>6475.43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D37</f>
+        <v>932.95388040647526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>2035</v>
       </c>
       <c r="B23" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A23,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>8001.4579999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D38</f>
+        <v>1152.8955611950789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>2036</v>
       </c>
       <c r="B24" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A24,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>9272.8990000000013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D39</f>
+        <v>1336.1820689640858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>2037</v>
       </c>
       <c r="B25" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A25,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>9281.3060000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D40</f>
+        <v>1337.4836202912352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>2038</v>
       </c>
       <c r="B26" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A26,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>12197.307000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D41</f>
+        <v>1757.8127265175865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>2039</v>
       </c>
       <c r="B27" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A27,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>12439.215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D42</f>
+        <v>1792.7249057233041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>2040</v>
       </c>
       <c r="B28" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A28,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>15457.273999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D43</f>
+        <v>2227.7456850222829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>2041</v>
       </c>
       <c r="B29" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A29,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>18583.275000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D44</f>
+        <v>2678.3478920110842</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>2042</v>
       </c>
       <c r="B30" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A30,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>18818.812999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D45</f>
+        <v>2712.3703442634765</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>2043</v>
       </c>
       <c r="B31" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A31,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>20163.57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D46</f>
+        <v>2906.2717126076077</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>2044</v>
       </c>
       <c r="B32" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A32,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>20803.710999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D47</f>
+        <v>2998.5724142558529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>2045</v>
       </c>
       <c r="B33" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A33,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>21957.171999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D48</f>
+        <v>3164.8641643833748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>2046</v>
       </c>
       <c r="B34" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A34,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>23104.578000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D49</f>
+        <v>3330.2869321795679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>2047</v>
       </c>
       <c r="B35" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A35,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>26104.578000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D50</f>
+        <v>3762.748844707638</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>2048</v>
       </c>
       <c r="B36" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A36,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>27820.377</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D51</f>
+        <v>4010.112038991354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>2049</v>
       </c>
       <c r="B37" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A37,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>27820.377</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D52</f>
+        <v>4010.1576667930335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>2050</v>
       </c>
       <c r="B38" s="8">
-        <f>(INDEX('AEO Table 9'!$E$23:$AK$23,1,MATCH(BGrBSC!A38,'AEO Table 9'!$E$13:$AK$13,0)))*1000</f>
-        <v>30820.377</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'ERCOT Wind and Solar'!D53</f>
+        <v>4442.6420744065081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B39" s="8"/>
     </row>
   </sheetData>

--- a/InputData/elec/BGrBSC/BAU Grid Battery Storage Cap.xlsx
+++ b/InputData/elec/BGrBSC/BAU Grid Battery Storage Cap.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\BGrBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-texas\InputData\elec\BGrBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C644DDC-15EB-41C5-B497-78C96E975045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49635" yWindow="660" windowWidth="13830" windowHeight="13005" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="16223" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,21 +19,11 @@
     <sheet name="BGrBSC" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="170">
   <si>
     <t>Source:</t>
   </si>
@@ -526,19 +515,37 @@
   </si>
   <si>
     <t xml:space="preserve">Not all of that storage will be built, but it shows a strong demand for storage. Probably the LTSA has some sort of capacity expansion method that evaluates storage too pessimistically. </t>
+  </si>
+  <si>
+    <t>From VCE WIS:dom Model BAU run</t>
+  </si>
+  <si>
+    <t>Note: This sheet has since been updated to use BAU storage capacity from the VCE BAU model</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>From VCE BAU Model Run</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,8 +729,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,8 +831,20 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -958,6 +995,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1029,7 +1135,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1077,72 +1183,80 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="28" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="28" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="29" fillId="18" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="29" fillId="18" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="29" fillId="18" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="58">
-    <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="56" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Calculation 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Check Cell 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Euro" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="52" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="57" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Good 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Header: bottom row" xfId="53" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Heading 1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Heading 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Heading 3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Heading 4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="3"/>
+    <cellStyle name="20% - Accent2 2" xfId="4"/>
+    <cellStyle name="20% - Accent3 2" xfId="5"/>
+    <cellStyle name="20% - Accent4 2" xfId="6"/>
+    <cellStyle name="20% - Accent5 2" xfId="7"/>
+    <cellStyle name="20% - Accent6 2" xfId="8"/>
+    <cellStyle name="40% - Accent1 2" xfId="9"/>
+    <cellStyle name="40% - Accent2 2" xfId="10"/>
+    <cellStyle name="40% - Accent3 2" xfId="11"/>
+    <cellStyle name="40% - Accent4 2" xfId="12"/>
+    <cellStyle name="40% - Accent5 2" xfId="13"/>
+    <cellStyle name="40% - Accent6 2" xfId="14"/>
+    <cellStyle name="60% - Accent1 2" xfId="15"/>
+    <cellStyle name="60% - Accent2 2" xfId="16"/>
+    <cellStyle name="60% - Accent3 2" xfId="17"/>
+    <cellStyle name="60% - Accent4 2" xfId="18"/>
+    <cellStyle name="60% - Accent5 2" xfId="19"/>
+    <cellStyle name="60% - Accent6 2" xfId="20"/>
+    <cellStyle name="Accent1 2" xfId="21"/>
+    <cellStyle name="Accent2 2" xfId="22"/>
+    <cellStyle name="Accent3 2" xfId="23"/>
+    <cellStyle name="Accent4 2" xfId="24"/>
+    <cellStyle name="Accent5 2" xfId="25"/>
+    <cellStyle name="Accent6 2" xfId="26"/>
+    <cellStyle name="Bad 2" xfId="27"/>
+    <cellStyle name="Body: normal cell" xfId="56"/>
+    <cellStyle name="Calculation 2" xfId="28"/>
+    <cellStyle name="Check Cell 2" xfId="29"/>
+    <cellStyle name="Euro" xfId="30"/>
+    <cellStyle name="Explanatory Text 2" xfId="31"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="52"/>
+    <cellStyle name="Footnotes: top row" xfId="57"/>
+    <cellStyle name="Good 2" xfId="32"/>
+    <cellStyle name="Header: bottom row" xfId="53"/>
+    <cellStyle name="Heading 1 2" xfId="33"/>
+    <cellStyle name="Heading 2 2" xfId="34"/>
+    <cellStyle name="Heading 3 2" xfId="35"/>
+    <cellStyle name="Heading 4 2" xfId="36"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Input 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Neutral 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Input 2" xfId="37"/>
+    <cellStyle name="Linked Cell 2" xfId="38"/>
+    <cellStyle name="Neutral 2" xfId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Normal 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Normal 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Normal 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Normal 2 5" xfId="50" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Normal 2 6" xfId="51" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Normal 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Normal 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Note 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Output 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Parent row" xfId="55" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Table title" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Title 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Total 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Warning Text 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="45"/>
+    <cellStyle name="Normal 2 3" xfId="48"/>
+    <cellStyle name="Normal 2 4" xfId="49"/>
+    <cellStyle name="Normal 2 5" xfId="50"/>
+    <cellStyle name="Normal 2 6" xfId="51"/>
+    <cellStyle name="Normal 3" xfId="46"/>
+    <cellStyle name="Normal 4" xfId="47"/>
+    <cellStyle name="Note 2" xfId="40"/>
+    <cellStyle name="Output 2" xfId="41"/>
+    <cellStyle name="Parent row" xfId="55"/>
+    <cellStyle name="Table title" xfId="54"/>
+    <cellStyle name="Title 2" xfId="42"/>
+    <cellStyle name="Total 2" xfId="43"/>
+    <cellStyle name="Warning Text 2" xfId="44"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1471,6 +1585,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1478,7 +1593,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2186,23 +2300,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2238,23 +2335,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2430,24 +2510,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2455,60 +2535,60 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2">
       <c r="B6" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" s="6" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" s="6" customFormat="1">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" s="6" customFormat="1">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" s="6" customFormat="1">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" s="6" customFormat="1">
       <c r="B17" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -2516,23 +2596,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK114"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.796875" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="6" customWidth="1"/>
     <col min="3" max="37" width="9.1328125" style="6"/>
     <col min="38" max="38" width="8" style="6" customWidth="1"/>
     <col min="39" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="9" t="s">
         <v>125</v>
       </c>
@@ -2639,8 +2719,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1">
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
@@ -2651,7 +2731,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" ht="15" customHeight="1">
       <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
@@ -2664,7 +2744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" ht="15" customHeight="1">
       <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
@@ -2675,7 +2755,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" ht="15" customHeight="1">
       <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2686,7 +2766,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" ht="15" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
@@ -2694,12 +2774,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" ht="15" customHeight="1">
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" ht="15" customHeight="1">
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
@@ -2809,7 +2889,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -2919,18 +2999,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1">
       <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" ht="15" customHeight="1">
       <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
@@ -3043,7 +3123,7 @@
         <v>-1.4527999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
@@ -3156,7 +3236,7 @@
         <v>-1.2109E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
@@ -3269,7 +3349,7 @@
         <v>2.2502999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
@@ -3382,7 +3462,7 @@
         <v>8.456E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
@@ -3495,7 +3575,7 @@
         <v>-5.6340000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>29</v>
       </c>
@@ -3608,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>31</v>
       </c>
@@ -3721,7 +3801,7 @@
         <v>0.123014</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" ht="15" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>33</v>
       </c>
@@ -3834,7 +3914,7 @@
         <v>5.8900000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" ht="15" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
@@ -3947,7 +4027,7 @@
         <v>2.3185000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>37</v>
       </c>
@@ -4060,7 +4140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" ht="15" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>40</v>
       </c>
@@ -4173,12 +4253,12 @@
         <v>1.1344E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" ht="15" customHeight="1">
       <c r="B28" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" ht="15" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>43</v>
       </c>
@@ -4291,7 +4371,7 @@
         <v>-3.3660000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" ht="15" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>45</v>
       </c>
@@ -4404,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="15" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>47</v>
       </c>
@@ -4517,7 +4597,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" ht="15" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>48</v>
       </c>
@@ -4630,7 +4710,7 @@
         <v>-9.68E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>49</v>
       </c>
@@ -4743,7 +4823,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" ht="15" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>50</v>
       </c>
@@ -4856,12 +4936,12 @@
         <v>-4.06E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" ht="15" customHeight="1">
       <c r="B36" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" ht="15" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>52</v>
       </c>
@@ -4974,7 +5054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" ht="15" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>53</v>
       </c>
@@ -5087,7 +5167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:37" ht="15" customHeight="1">
       <c r="A39" s="12" t="s">
         <v>54</v>
       </c>
@@ -5200,7 +5280,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" ht="15" customHeight="1">
       <c r="A40" s="12" t="s">
         <v>55</v>
       </c>
@@ -5313,7 +5393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" ht="15" customHeight="1">
       <c r="A41" s="12" t="s">
         <v>56</v>
       </c>
@@ -5426,7 +5506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:37" ht="15" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>58</v>
       </c>
@@ -5539,7 +5619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" ht="15" customHeight="1">
       <c r="A43" s="12" t="s">
         <v>59</v>
       </c>
@@ -5652,7 +5732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" ht="15" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>60</v>
       </c>
@@ -5765,7 +5845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" ht="15" customHeight="1">
       <c r="A45" s="12" t="s">
         <v>61</v>
       </c>
@@ -5878,7 +5958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" ht="15" customHeight="1">
       <c r="A46" s="12" t="s">
         <v>62</v>
       </c>
@@ -5991,7 +6071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:37" ht="15" customHeight="1">
       <c r="A47" s="12" t="s">
         <v>64</v>
       </c>
@@ -6104,12 +6184,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" ht="15" customHeight="1">
       <c r="B48" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" ht="15" customHeight="1">
       <c r="A49" s="12" t="s">
         <v>66</v>
       </c>
@@ -6222,7 +6302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" ht="15" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>67</v>
       </c>
@@ -6335,7 +6415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" ht="15" customHeight="1">
       <c r="A51" s="12" t="s">
         <v>68</v>
       </c>
@@ -6448,7 +6528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:37" ht="15" customHeight="1">
       <c r="A52" s="12" t="s">
         <v>69</v>
       </c>
@@ -6561,7 +6641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:37" ht="15" customHeight="1">
       <c r="A53" s="12" t="s">
         <v>70</v>
       </c>
@@ -6674,7 +6754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" ht="15" customHeight="1">
       <c r="A54" s="12" t="s">
         <v>71</v>
       </c>
@@ -6787,7 +6867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" ht="15" customHeight="1">
       <c r="A55" s="12" t="s">
         <v>72</v>
       </c>
@@ -6900,7 +6980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" ht="15" customHeight="1">
       <c r="A56" s="12" t="s">
         <v>73</v>
       </c>
@@ -7013,7 +7093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" ht="15" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>74</v>
       </c>
@@ -7126,7 +7206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" ht="15" customHeight="1">
       <c r="A58" s="12" t="s">
         <v>75</v>
       </c>
@@ -7239,7 +7319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" ht="15" customHeight="1">
       <c r="A59" s="12" t="s">
         <v>76</v>
       </c>
@@ -7352,7 +7432,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:37" ht="15" customHeight="1">
       <c r="A60" s="12" t="s">
         <v>77</v>
       </c>
@@ -7465,12 +7545,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:37" ht="15" customHeight="1">
       <c r="B62" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:37" ht="15" customHeight="1">
       <c r="A63" s="12" t="s">
         <v>79</v>
       </c>
@@ -7583,7 +7663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:37" ht="15" customHeight="1">
       <c r="A64" s="12" t="s">
         <v>80</v>
       </c>
@@ -7696,7 +7776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" ht="15" customHeight="1">
       <c r="A65" s="12" t="s">
         <v>81</v>
       </c>
@@ -7809,7 +7889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" ht="15" customHeight="1">
       <c r="A66" s="12" t="s">
         <v>82</v>
       </c>
@@ -7922,7 +8002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" ht="15" customHeight="1">
       <c r="A67" s="12" t="s">
         <v>83</v>
       </c>
@@ -8035,7 +8115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" ht="15" customHeight="1">
       <c r="A68" s="12" t="s">
         <v>84</v>
       </c>
@@ -8148,7 +8228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:37" ht="15" customHeight="1">
       <c r="A69" s="12" t="s">
         <v>85</v>
       </c>
@@ -8261,7 +8341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:37" ht="15" customHeight="1">
       <c r="A70" s="12" t="s">
         <v>86</v>
       </c>
@@ -8374,7 +8454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:37" ht="15" customHeight="1">
       <c r="A71" s="12" t="s">
         <v>87</v>
       </c>
@@ -8487,7 +8567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:37" ht="15" customHeight="1">
       <c r="A72" s="12" t="s">
         <v>88</v>
       </c>
@@ -8600,7 +8680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:37" ht="15" customHeight="1">
       <c r="A74" s="12" t="s">
         <v>89</v>
       </c>
@@ -8713,12 +8793,12 @@
         <v>1.1053E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:37" ht="15" customHeight="1">
       <c r="B76" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:37" ht="15" customHeight="1">
       <c r="A77" s="12" t="s">
         <v>92</v>
       </c>
@@ -8831,7 +8911,7 @@
         <v>-9.3640000000000008E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:37" ht="15" customHeight="1">
       <c r="A78" s="12" t="s">
         <v>93</v>
       </c>
@@ -8944,7 +9024,7 @@
         <v>-2.039E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:37" ht="15" customHeight="1">
       <c r="A79" s="12" t="s">
         <v>95</v>
       </c>
@@ -9057,7 +9137,7 @@
         <v>2.5253000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:37" ht="15" customHeight="1">
       <c r="A80" s="12" t="s">
         <v>97</v>
       </c>
@@ -9170,7 +9250,7 @@
         <v>-7.0799999999999997E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:37" ht="15" customHeight="1">
       <c r="A81" s="12" t="s">
         <v>99</v>
       </c>
@@ -9283,7 +9363,7 @@
         <v>6.0502E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:37" ht="15" customHeight="1">
       <c r="A82" s="12" t="s">
         <v>100</v>
       </c>
@@ -9396,7 +9476,7 @@
         <v>4.0169999999999997E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:37" ht="15" customHeight="1">
       <c r="A83" s="12" t="s">
         <v>102</v>
       </c>
@@ -9509,7 +9589,7 @@
         <v>4.7788999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:37" ht="15" customHeight="1">
       <c r="A85" s="12" t="s">
         <v>103</v>
       </c>
@@ -9622,178 +9702,178 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="25" t="s">
+    <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
+    <row r="87" spans="1:37" ht="15" customHeight="1">
+      <c r="B87" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="25"/>
-      <c r="S87" s="25"/>
-      <c r="T87" s="25"/>
-      <c r="U87" s="25"/>
-      <c r="V87" s="25"/>
-      <c r="W87" s="25"/>
-      <c r="X87" s="25"/>
-      <c r="Y87" s="25"/>
-      <c r="Z87" s="25"/>
-      <c r="AA87" s="25"/>
-      <c r="AB87" s="25"/>
-      <c r="AC87" s="25"/>
-      <c r="AD87" s="25"/>
-      <c r="AE87" s="25"/>
-      <c r="AF87" s="25"/>
-      <c r="AG87" s="25"/>
-      <c r="AH87" s="25"/>
-      <c r="AI87" s="25"/>
-      <c r="AJ87" s="25"/>
-      <c r="AK87" s="25"/>
-    </row>
-    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="30"/>
+      <c r="M87" s="30"/>
+      <c r="N87" s="30"/>
+      <c r="O87" s="30"/>
+      <c r="P87" s="30"/>
+      <c r="Q87" s="30"/>
+      <c r="R87" s="30"/>
+      <c r="S87" s="30"/>
+      <c r="T87" s="30"/>
+      <c r="U87" s="30"/>
+      <c r="V87" s="30"/>
+      <c r="W87" s="30"/>
+      <c r="X87" s="30"/>
+      <c r="Y87" s="30"/>
+      <c r="Z87" s="30"/>
+      <c r="AA87" s="30"/>
+      <c r="AB87" s="30"/>
+      <c r="AC87" s="30"/>
+      <c r="AD87" s="30"/>
+      <c r="AE87" s="30"/>
+      <c r="AF87" s="30"/>
+      <c r="AG87" s="30"/>
+      <c r="AH87" s="30"/>
+      <c r="AI87" s="30"/>
+      <c r="AJ87" s="30"/>
+      <c r="AK87" s="30"/>
+    </row>
+    <row r="88" spans="1:37" ht="15" customHeight="1">
       <c r="B88" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:37" ht="15" customHeight="1">
       <c r="B89" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:37" ht="15" customHeight="1">
       <c r="B90" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:37" ht="15" customHeight="1">
       <c r="B91" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:37" ht="15" customHeight="1">
       <c r="B92" s="21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:37" ht="15" customHeight="1">
       <c r="B93" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:37" ht="15" customHeight="1">
       <c r="B94" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:37" ht="15" customHeight="1">
       <c r="B95" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:37" ht="15" customHeight="1">
       <c r="B96" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:2" ht="15" customHeight="1">
       <c r="B97" s="21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:2" ht="15" customHeight="1">
       <c r="B98" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:2" ht="15" customHeight="1">
       <c r="B99" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:2" ht="15" customHeight="1">
       <c r="B100" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:2" ht="15" customHeight="1">
       <c r="B101" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:2" ht="15" customHeight="1">
       <c r="B102" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:2" ht="15" customHeight="1">
       <c r="B103" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:2" ht="15" customHeight="1">
       <c r="B104" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:2" ht="15" customHeight="1">
       <c r="B105" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:2" ht="15" customHeight="1">
       <c r="B106" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:2" ht="15" customHeight="1">
       <c r="B107" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:2" ht="15" customHeight="1">
       <c r="B108" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:2" ht="15" customHeight="1">
       <c r="B109" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:2" ht="15" customHeight="1">
       <c r="B110" s="21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:2" ht="15" customHeight="1">
       <c r="B111" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:2" ht="15" customHeight="1">
       <c r="B112" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:2" ht="15" customHeight="1">
       <c r="B113" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:2" ht="15" customHeight="1">
       <c r="B114" s="21" t="s">
         <v>140</v>
       </c>
@@ -9807,20 +9887,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E08488-9B5A-48C3-8F59-84D8BA676B68}">
-  <dimension ref="A1:H53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.73046875" customWidth="1"/>
+    <col min="1" max="1" width="23.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -9831,18 +9913,18 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8">
       <c r="B2" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" s="6" customFormat="1">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" s="6" customFormat="1">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" s="6" customFormat="1">
       <c r="B5" s="8">
         <v>2018</v>
       </c>
@@ -9865,7 +9947,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -9881,7 +9963,7 @@
         <v>28.200000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -9897,7 +9979,7 @@
         <v>14.299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -9915,7 +9997,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -9932,7 +10014,7 @@
         <v>295.24517800000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>154</v>
       </c>
@@ -9949,19 +10031,19 @@
         <v>0.14394815958687732</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -9990,7 +10072,7 @@
         <v>5.6894168033560923E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>156</v>
       </c>
@@ -10011,12 +10093,12 @@
         <v>0.14414297976592316</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14">
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="30" customHeight="1">
       <c r="B19" s="23" t="s">
         <v>154</v>
       </c>
@@ -10027,11 +10109,13 @@
         <v>158</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="32"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>2017</v>
       </c>
@@ -10048,7 +10132,7 @@
         <v>62.061719583038922</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -10064,8 +10148,15 @@
         <f t="shared" ref="D21:D53" si="4">C21*B21</f>
         <v>82.518658491199943</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F21" s="27">
+        <v>2018</v>
+      </c>
+      <c r="G21" s="25">
+        <f>N26</f>
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="6">
         <v>2019</v>
       </c>
@@ -10081,8 +10172,15 @@
         <f t="shared" si="4"/>
         <v>91.444310077286502</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F22" s="27">
+        <v>2019</v>
+      </c>
+      <c r="G22" s="8">
+        <f>G21+((G23-G21)/(F23-F21))</f>
+        <v>209.71449999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="6">
         <v>2020</v>
       </c>
@@ -10098,8 +10196,18 @@
         <f t="shared" si="4"/>
         <v>109.77071804196831</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F23" s="27">
+        <v>2020</v>
+      </c>
+      <c r="G23" s="25">
+        <f>N27</f>
+        <v>320.12900000000002</v>
+      </c>
+      <c r="L23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="6">
         <v>2021</v>
       </c>
@@ -10115,8 +10223,15 @@
         <f t="shared" si="4"/>
         <v>145.30060354687998</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F24" s="27">
+        <v>2021</v>
+      </c>
+      <c r="G24">
+        <f>G23+(($G$28-$G$23)/5)</f>
+        <v>738.03800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="6">
         <v>2022</v>
       </c>
@@ -10132,8 +10247,24 @@
         <f t="shared" si="4"/>
         <v>183.26087203977369</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F25" s="27">
+        <v>2022</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" ref="G25:G27" si="5">G24+(($G$28-$G$23)/5)</f>
+        <v>1155.9470000000001</v>
+      </c>
+      <c r="L25" t="s">
+        <v>166</v>
+      </c>
+      <c r="M25" t="s">
+        <v>167</v>
+      </c>
+      <c r="N25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="6">
         <v>2023</v>
       </c>
@@ -10149,8 +10280,28 @@
         <f t="shared" si="4"/>
         <v>223.65152352064933</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F26" s="27">
+        <v>2023</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="5"/>
+        <v>1573.8560000000002</v>
+      </c>
+      <c r="K26">
+        <v>2018</v>
+      </c>
+      <c r="L26" s="28">
+        <v>1141.95</v>
+      </c>
+      <c r="M26" s="28">
+        <v>11.5</v>
+      </c>
+      <c r="N26">
+        <f>L26/M26</f>
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="6">
         <v>2024</v>
       </c>
@@ -10166,8 +10317,28 @@
         <f t="shared" si="4"/>
         <v>260.83959245103057</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F27" s="27">
+        <v>2024</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="5"/>
+        <v>1991.7650000000003</v>
+      </c>
+      <c r="K27">
+        <v>2020</v>
+      </c>
+      <c r="L27" s="28">
+        <v>1756.203</v>
+      </c>
+      <c r="M27" s="28">
+        <v>5.4859228623461167</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" ref="N27:N33" si="6">L27/M27</f>
+        <v>320.12900000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="6">
         <v>2025</v>
       </c>
@@ -10183,8 +10354,28 @@
         <f t="shared" si="4"/>
         <v>264.6708303801289</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F28" s="27">
+        <v>2025</v>
+      </c>
+      <c r="G28" s="25">
+        <f>N28</f>
+        <v>2409.674</v>
+      </c>
+      <c r="K28">
+        <v>2025</v>
+      </c>
+      <c r="L28" s="28">
+        <v>8843.4330000000009</v>
+      </c>
+      <c r="M28" s="28">
+        <v>3.66997070973086</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="6"/>
+        <v>2409.674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="6">
         <v>2026</v>
       </c>
@@ -10200,8 +10391,28 @@
         <f t="shared" si="4"/>
         <v>268.50206830922735</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F29" s="27">
+        <v>2026</v>
+      </c>
+      <c r="G29" s="6">
+        <f>G28+(($G$33-$G$28)/5)</f>
+        <v>2943.0434</v>
+      </c>
+      <c r="K29">
+        <v>2030</v>
+      </c>
+      <c r="L29" s="28">
+        <v>37965.476999999999</v>
+      </c>
+      <c r="M29" s="28">
+        <v>7.4786407856876789</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="6"/>
+        <v>5076.5209999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="6">
         <v>2027</v>
       </c>
@@ -10217,8 +10428,28 @@
         <f t="shared" si="4"/>
         <v>272.33330623832575</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F30" s="27">
+        <v>2027</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" ref="G30:G32" si="7">G29+(($G$33-$G$28)/5)</f>
+        <v>3476.4128000000001</v>
+      </c>
+      <c r="K30">
+        <v>2035</v>
+      </c>
+      <c r="L30" s="28">
+        <v>117803.879</v>
+      </c>
+      <c r="M30" s="28">
+        <v>8.2268053454596277</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="6"/>
+        <v>14319.516999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="6">
         <v>2028</v>
       </c>
@@ -10234,8 +10465,28 @@
         <f t="shared" si="4"/>
         <v>276.16454416742414</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F31" s="27">
+        <v>2028</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="7"/>
+        <v>4009.7822000000001</v>
+      </c>
+      <c r="K31">
+        <v>2040</v>
+      </c>
+      <c r="L31" s="28">
+        <v>129644.193</v>
+      </c>
+      <c r="M31" s="28">
+        <v>8.1433167980689838</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" si="6"/>
+        <v>15920.317999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="6">
         <v>2029</v>
       </c>
@@ -10251,8 +10502,28 @@
         <f t="shared" si="4"/>
         <v>276.20985977880179</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F32" s="27">
+        <v>2029</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="7"/>
+        <v>4543.1516000000001</v>
+      </c>
+      <c r="K32">
+        <v>2045</v>
+      </c>
+      <c r="L32" s="28">
+        <v>166353.658</v>
+      </c>
+      <c r="M32" s="28">
+        <v>8.1908056818273582</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="6"/>
+        <v>20309.804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="6">
         <v>2030</v>
       </c>
@@ -10268,8 +10539,28 @@
         <f t="shared" si="4"/>
         <v>276.25517539017943</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F33" s="27">
+        <v>2030</v>
+      </c>
+      <c r="G33" s="25">
+        <f>N29</f>
+        <v>5076.5209999999997</v>
+      </c>
+      <c r="K33">
+        <v>2050</v>
+      </c>
+      <c r="L33" s="29">
+        <v>210048.046</v>
+      </c>
+      <c r="M33" s="29">
+        <v>8.6185957503711403</v>
+      </c>
+      <c r="N33" s="6">
+        <f t="shared" si="6"/>
+        <v>24371.493000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="6">
         <v>2031</v>
       </c>
@@ -10285,8 +10576,15 @@
         <f t="shared" si="4"/>
         <v>679.12169159126518</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F34" s="27">
+        <v>2031</v>
+      </c>
+      <c r="G34" s="6">
+        <f>G33+(($G$38-$G$33)/5)</f>
+        <v>6925.1201999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="6">
         <v>2032</v>
       </c>
@@ -10302,8 +10600,15 @@
         <f t="shared" si="4"/>
         <v>822.9789863615357</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F35" s="27">
+        <v>2032</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" ref="G35:G37" si="8">G34+(($G$38-$G$33)/5)</f>
+        <v>8773.7194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="6">
         <v>2033</v>
       </c>
@@ -10319,8 +10624,15 @@
         <f t="shared" si="4"/>
         <v>823.11393972440737</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F36" s="27">
+        <v>2033</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="8"/>
+        <v>10622.318600000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="6">
         <v>2034</v>
       </c>
@@ -10336,8 +10648,15 @@
         <f t="shared" si="4"/>
         <v>932.95388040647526</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F37" s="27">
+        <v>2034</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="8"/>
+        <v>12470.917800000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="6">
         <v>2035</v>
       </c>
@@ -10353,8 +10672,15 @@
         <f t="shared" si="4"/>
         <v>1152.8955611950789</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F38" s="27">
+        <v>2035</v>
+      </c>
+      <c r="G38" s="25">
+        <f>N30</f>
+        <v>14319.516999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="6">
         <v>2036</v>
       </c>
@@ -10370,8 +10696,15 @@
         <f t="shared" si="4"/>
         <v>1336.1820689640858</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F39" s="27">
+        <v>2036</v>
+      </c>
+      <c r="G39" s="6">
+        <f>G38+(($G$43-$G$38)/5)</f>
+        <v>14639.677199999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="6">
         <v>2037</v>
       </c>
@@ -10387,8 +10720,15 @@
         <f t="shared" si="4"/>
         <v>1337.4836202912352</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F40" s="27">
+        <v>2037</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" ref="G40:G42" si="9">G39+(($G$43-$G$38)/5)</f>
+        <v>14959.837399999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="6">
         <v>2038</v>
       </c>
@@ -10404,8 +10744,15 @@
         <f t="shared" si="4"/>
         <v>1757.8127265175865</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F41" s="27">
+        <v>2038</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="9"/>
+        <v>15279.997599999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="6">
         <v>2039</v>
       </c>
@@ -10421,8 +10768,15 @@
         <f t="shared" si="4"/>
         <v>1792.7249057233041</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F42" s="27">
+        <v>2039</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="9"/>
+        <v>15600.157799999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="6">
         <v>2040</v>
       </c>
@@ -10438,8 +10792,15 @@
         <f t="shared" si="4"/>
         <v>2227.7456850222829</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F43" s="27">
+        <v>2040</v>
+      </c>
+      <c r="G43" s="25">
+        <f>N31</f>
+        <v>15920.317999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="6">
         <v>2041</v>
       </c>
@@ -10455,8 +10816,15 @@
         <f t="shared" si="4"/>
         <v>2678.3478920110842</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F44" s="27">
+        <v>2041</v>
+      </c>
+      <c r="G44" s="6">
+        <f>G43+(($G$48-$G$43)/5)</f>
+        <v>16798.215199999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="6">
         <v>2042</v>
       </c>
@@ -10472,8 +10840,15 @@
         <f t="shared" si="4"/>
         <v>2712.3703442634765</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F45" s="27">
+        <v>2042</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" ref="G45:G47" si="10">G44+(($G$48-$G$43)/5)</f>
+        <v>17676.112399999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="6">
         <v>2043</v>
       </c>
@@ -10489,8 +10864,15 @@
         <f t="shared" si="4"/>
         <v>2906.2717126076077</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F46" s="27">
+        <v>2043</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="10"/>
+        <v>18554.009599999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="6">
         <v>2044</v>
       </c>
@@ -10506,8 +10888,15 @@
         <f t="shared" si="4"/>
         <v>2998.5724142558529</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F47" s="27">
+        <v>2044</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="10"/>
+        <v>19431.906799999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="6">
         <v>2045</v>
       </c>
@@ -10523,8 +10912,15 @@
         <f t="shared" si="4"/>
         <v>3164.8641643833748</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F48" s="27">
+        <v>2045</v>
+      </c>
+      <c r="G48" s="25">
+        <f>N32</f>
+        <v>20309.804</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="6">
         <v>2046</v>
       </c>
@@ -10540,8 +10936,15 @@
         <f t="shared" si="4"/>
         <v>3330.2869321795679</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F49" s="27">
+        <v>2046</v>
+      </c>
+      <c r="G49" s="6">
+        <f>G48+(($G$53-$G$48)/5)</f>
+        <v>21122.141800000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="6">
         <v>2047</v>
       </c>
@@ -10557,8 +10960,15 @@
         <f t="shared" si="4"/>
         <v>3762.748844707638</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F50" s="27">
+        <v>2047</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" ref="G50:G52" si="11">G49+(($G$53-$G$48)/5)</f>
+        <v>21934.479600000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="6">
         <v>2048</v>
       </c>
@@ -10574,8 +10984,15 @@
         <f t="shared" si="4"/>
         <v>4010.112038991354</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F51" s="27">
+        <v>2048</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="11"/>
+        <v>22746.817400000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="6">
         <v>2049</v>
       </c>
@@ -10591,8 +11008,15 @@
         <f t="shared" si="4"/>
         <v>4010.1576667930335</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F52" s="27">
+        <v>2049</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="11"/>
+        <v>23559.155200000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="6">
         <v>2050</v>
       </c>
@@ -10608,14 +11032,23 @@
         <f t="shared" si="4"/>
         <v>4442.6420744065081</v>
       </c>
+      <c r="F53" s="27">
+        <v>2050</v>
+      </c>
+      <c r="G53" s="26">
+        <f>N33</f>
+        <v>24371.493000000002</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F19:G19"/>
   </mergeCells>
+  <phoneticPr fontId="30" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{F1293F92-CB54-420C-B180-6DD39ED03F61}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{0EA77B40-9DCB-45B4-BCB1-16F0C16587B7}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -10624,88 +11057,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8954B34C-E227-4380-9B6D-F5E9EA8875ED}">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" s="6" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="6" customFormat="1">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>145</v>
       </c>
     </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{A6323CF4-B507-4AB9-94AB-5483013C801F}"/>
+    <hyperlink ref="A4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2">
       <c r="A2" s="6">
         <v>2014</v>
       </c>
@@ -10713,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="A3" s="6">
         <v>2015</v>
       </c>
@@ -10721,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2">
       <c r="A4" s="6">
         <v>2016</v>
       </c>
@@ -10729,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2">
       <c r="A5" s="6">
         <v>2017</v>
       </c>
@@ -10738,304 +11176,304 @@
         <v>62.061719583038922</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2">
       <c r="A6" s="6">
         <v>2018</v>
       </c>
       <c r="B6" s="8">
-        <f>'ERCOT Wind and Solar'!D21</f>
-        <v>82.518658491199943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G21</f>
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="6">
         <v>2019</v>
       </c>
       <c r="B7" s="8">
-        <f>'ERCOT Wind and Solar'!D22</f>
-        <v>91.444310077286502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G22</f>
+        <v>209.71449999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="6">
         <v>2020</v>
       </c>
       <c r="B8" s="8">
-        <f>'ERCOT Wind and Solar'!D23</f>
-        <v>109.77071804196831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G23</f>
+        <v>320.12900000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="6">
         <v>2021</v>
       </c>
       <c r="B9" s="8">
-        <f>'ERCOT Wind and Solar'!D24</f>
-        <v>145.30060354687998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G24</f>
+        <v>738.03800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="6">
         <v>2022</v>
       </c>
       <c r="B10" s="8">
-        <f>'ERCOT Wind and Solar'!D25</f>
-        <v>183.26087203977369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G25</f>
+        <v>1155.9470000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="6">
         <v>2023</v>
       </c>
       <c r="B11" s="8">
-        <f>'ERCOT Wind and Solar'!D26</f>
-        <v>223.65152352064933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G26</f>
+        <v>1573.8560000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="6">
         <v>2024</v>
       </c>
       <c r="B12" s="8">
-        <f>'ERCOT Wind and Solar'!D27</f>
-        <v>260.83959245103057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G27</f>
+        <v>1991.7650000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="6">
         <v>2025</v>
       </c>
       <c r="B13" s="8">
-        <f>'ERCOT Wind and Solar'!D28</f>
-        <v>264.6708303801289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G28</f>
+        <v>2409.674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="6">
         <v>2026</v>
       </c>
       <c r="B14" s="8">
-        <f>'ERCOT Wind and Solar'!D29</f>
-        <v>268.50206830922735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G29</f>
+        <v>2943.0434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="6">
         <v>2027</v>
       </c>
       <c r="B15" s="8">
-        <f>'ERCOT Wind and Solar'!D30</f>
-        <v>272.33330623832575</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G30</f>
+        <v>3476.4128000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="6">
         <v>2028</v>
       </c>
       <c r="B16" s="8">
-        <f>'ERCOT Wind and Solar'!D31</f>
-        <v>276.16454416742414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G31</f>
+        <v>4009.7822000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="6">
         <v>2029</v>
       </c>
       <c r="B17" s="8">
-        <f>'ERCOT Wind and Solar'!D32</f>
-        <v>276.20985977880179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G32</f>
+        <v>4543.1516000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="6">
         <v>2030</v>
       </c>
       <c r="B18" s="8">
-        <f>'ERCOT Wind and Solar'!D33</f>
-        <v>276.25517539017943</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G33</f>
+        <v>5076.5209999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="6">
         <v>2031</v>
       </c>
       <c r="B19" s="8">
-        <f>'ERCOT Wind and Solar'!D34</f>
-        <v>679.12169159126518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G34</f>
+        <v>6925.1201999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="6">
         <v>2032</v>
       </c>
       <c r="B20" s="8">
-        <f>'ERCOT Wind and Solar'!D35</f>
-        <v>822.9789863615357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G35</f>
+        <v>8773.7194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="6">
         <v>2033</v>
       </c>
       <c r="B21" s="8">
-        <f>'ERCOT Wind and Solar'!D36</f>
-        <v>823.11393972440737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G36</f>
+        <v>10622.318600000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="6">
         <v>2034</v>
       </c>
       <c r="B22" s="8">
-        <f>'ERCOT Wind and Solar'!D37</f>
-        <v>932.95388040647526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G37</f>
+        <v>12470.917800000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="6">
         <v>2035</v>
       </c>
       <c r="B23" s="8">
-        <f>'ERCOT Wind and Solar'!D38</f>
-        <v>1152.8955611950789</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G38</f>
+        <v>14319.516999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="6">
         <v>2036</v>
       </c>
       <c r="B24" s="8">
-        <f>'ERCOT Wind and Solar'!D39</f>
-        <v>1336.1820689640858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G39</f>
+        <v>14639.677199999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="6">
         <v>2037</v>
       </c>
       <c r="B25" s="8">
-        <f>'ERCOT Wind and Solar'!D40</f>
-        <v>1337.4836202912352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G40</f>
+        <v>14959.837399999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="6">
         <v>2038</v>
       </c>
       <c r="B26" s="8">
-        <f>'ERCOT Wind and Solar'!D41</f>
-        <v>1757.8127265175865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G41</f>
+        <v>15279.997599999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="6">
         <v>2039</v>
       </c>
       <c r="B27" s="8">
-        <f>'ERCOT Wind and Solar'!D42</f>
-        <v>1792.7249057233041</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G42</f>
+        <v>15600.157799999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="6">
         <v>2040</v>
       </c>
       <c r="B28" s="8">
-        <f>'ERCOT Wind and Solar'!D43</f>
-        <v>2227.7456850222829</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G43</f>
+        <v>15920.317999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="6">
         <v>2041</v>
       </c>
       <c r="B29" s="8">
-        <f>'ERCOT Wind and Solar'!D44</f>
-        <v>2678.3478920110842</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G44</f>
+        <v>16798.215199999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="6">
         <v>2042</v>
       </c>
       <c r="B30" s="8">
-        <f>'ERCOT Wind and Solar'!D45</f>
-        <v>2712.3703442634765</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G45</f>
+        <v>17676.112399999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="6">
         <v>2043</v>
       </c>
       <c r="B31" s="8">
-        <f>'ERCOT Wind and Solar'!D46</f>
-        <v>2906.2717126076077</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G46</f>
+        <v>18554.009599999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="6">
         <v>2044</v>
       </c>
       <c r="B32" s="8">
-        <f>'ERCOT Wind and Solar'!D47</f>
-        <v>2998.5724142558529</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G47</f>
+        <v>19431.906799999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="6">
         <v>2045</v>
       </c>
       <c r="B33" s="8">
-        <f>'ERCOT Wind and Solar'!D48</f>
-        <v>3164.8641643833748</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G48</f>
+        <v>20309.804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="6">
         <v>2046</v>
       </c>
       <c r="B34" s="8">
-        <f>'ERCOT Wind and Solar'!D49</f>
-        <v>3330.2869321795679</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G49</f>
+        <v>21122.141800000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="6">
         <v>2047</v>
       </c>
       <c r="B35" s="8">
-        <f>'ERCOT Wind and Solar'!D50</f>
-        <v>3762.748844707638</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G50</f>
+        <v>21934.479600000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="6">
         <v>2048</v>
       </c>
       <c r="B36" s="8">
-        <f>'ERCOT Wind and Solar'!D51</f>
-        <v>4010.112038991354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G51</f>
+        <v>22746.817400000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="6">
         <v>2049</v>
       </c>
       <c r="B37" s="8">
-        <f>'ERCOT Wind and Solar'!D52</f>
-        <v>4010.1576667930335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G52</f>
+        <v>23559.155200000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="6">
         <v>2050</v>
       </c>
       <c r="B38" s="8">
-        <f>'ERCOT Wind and Solar'!D53</f>
-        <v>4442.6420744065081</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <f>'ERCOT Wind and Solar'!G53</f>
+        <v>24371.493000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="B39" s="8"/>
     </row>
   </sheetData>
